--- a/StructureDefinition-ObservationHeight-adultcheck.xlsx
+++ b/StructureDefinition-ObservationHeight-adultcheck.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$102</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4697" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3935" uniqueCount="646">
   <si>
     <t>Property</t>
   </si>
@@ -380,22 +380,22 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber</t>
-  </si>
-  <si>
-    <t>hospitalNumber</t>
-  </si>
-  <si>
-    <t>適用所屬機構之醫事機構代碼</t>
-  </si>
-  <si>
-    <t>適用於所屬機構之醫事機構代碼</t>
+    <t>Observation.identifier:medicalrecordNumber</t>
+  </si>
+  <si>
+    <t>medicalrecordNumber</t>
+  </si>
+  <si>
+    <t>適用該就醫紀錄之就診序號</t>
+  </si>
+  <si>
+    <t>適用於該就醫紀錄之就診序號</t>
   </si>
   <si>
     <t>病人幾乎總是被指定一個特定的數值型的唯一識別碼（identifier）</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.id</t>
+    <t>Observation.identifier:medicalrecordNumber.id</t>
   </si>
   <si>
     <t>Observation.identifier.id</t>
@@ -417,7 +417,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.extension</t>
+    <t>Observation.identifier:medicalrecordNumber.extension</t>
   </si>
   <si>
     <t>Observation.identifier.extension</t>
@@ -433,7 +433,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.use</t>
+    <t>Observation.identifier:medicalrecordNumber.use</t>
   </si>
   <si>
     <t>Observation.identifier.use</t>
@@ -469,7 +469,7 @@
     <t>Role.code or implied by context</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type</t>
+    <t>Observation.identifier:medicalrecordNumber.type</t>
   </si>
   <si>
     <t>Observation.identifier.type</t>
@@ -510,7 +510,7 @@
     <t>CD</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type.id</t>
+    <t>Observation.identifier:medicalrecordNumber.type.id</t>
   </si>
   <si>
     <t>Observation.identifier.type.id</t>
@@ -519,13 +519,13 @@
     <t>resource中資料項目的唯一ID（用於內部參照），這可以是任何不含空格的字串。</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type.extension</t>
+    <t>Observation.identifier:medicalrecordNumber.type.extension</t>
   </si>
   <si>
     <t>Observation.identifier.type.extension</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type.coding</t>
+    <t>Observation.identifier:medicalrecordNumber.type.coding</t>
   </si>
   <si>
     <t>Observation.identifier.type.coding</t>
@@ -556,13 +556,13 @@
     <t>CV</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type.coding.id</t>
+    <t>Observation.identifier:medicalrecordNumber.type.coding.id</t>
   </si>
   <si>
     <t>Observation.identifier.type.coding.id</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type.coding.extension</t>
+    <t>Observation.identifier:medicalrecordNumber.type.coding.extension</t>
   </si>
   <si>
     <t>Observation.identifier.type.coding.extension</t>
@@ -571,7 +571,7 @@
     <t>無論使用或定義擴充的機構或管轄區，任何應用程式、專案或標準使用擴充都不背負任何污名（stigma）。使用擴充是允許FHIR規範為每個人保留一個核心的簡易性。</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type.coding.system</t>
+    <t>Observation.identifier:medicalrecordNumber.type.coding.system</t>
   </si>
   <si>
     <t>Observation.identifier.type.coding.system</t>
@@ -601,7 +601,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type.coding.version</t>
+    <t>Observation.identifier:medicalrecordNumber.type.coding.version</t>
   </si>
   <si>
     <t>Observation.identifier.type.coding.version</t>
@@ -625,7 +625,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type.coding.code</t>
+    <t>Observation.identifier:medicalrecordNumber.type.coding.code</t>
   </si>
   <si>
     <t>Observation.identifier.type.coding.code</t>
@@ -640,7 +640,7 @@
     <t>需要參照系統中的一個特定代碼</t>
   </si>
   <si>
-    <t>PRN</t>
+    <t>MRT</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -652,7 +652,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type.coding.display</t>
+    <t>Observation.identifier:medicalrecordNumber.type.coding.display</t>
   </si>
   <si>
     <t>Observation.identifier.type.coding.display</t>
@@ -676,7 +676,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type.coding.userSelected</t>
+    <t>Observation.identifier:medicalrecordNumber.type.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.identifier.type.coding.userSelected</t>
@@ -707,7 +707,7 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.type.text</t>
+    <t>Observation.identifier:medicalrecordNumber.type.text</t>
   </si>
   <si>
     <t>Observation.identifier.type.text</t>
@@ -734,14 +734,13 @@
     <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.system</t>
+    <t>Observation.identifier:medicalrecordNumber.system</t>
   </si>
   <si>
     <t>Observation.identifier.system</t>
   </si>
   <si>
-    <t>身份識別碼（identifier）的命名空間（namespace）
-例如：醫事機構代碼='https://twcore.mohw.gov.tw/tsfhir/CodeSystem/organization-identifier-tw'</t>
+    <t>就診序號發號者/機構/單位</t>
   </si>
   <si>
     <t>建立值的命名空間－即一個描述一組值的唯一URL</t>
@@ -753,9 +752,6 @@
     <t>有許多識別碼的集合。為了進行兩個識別碼的對應，我們需要知道我們處理的是哪一組。系統指明了一個特定的唯一識別碼集。</t>
   </si>
   <si>
-    <t>https://twcore.mohw.gov.tw/tsfhir/CodeSystem/organization-identifier-tw</t>
-  </si>
-  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
@@ -768,14 +764,14 @@
     <t>II.root or Role.id.root</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.value</t>
+    <t>Observation.identifier:medicalrecordNumber.value</t>
   </si>
   <si>
     <t>Observation.identifier.value</t>
   </si>
   <si>
     <t>唯一值。
-例如：所屬機構之醫事機構代碼為0123456789</t>
+例如：就診序號為0123456789</t>
   </si>
   <si>
     <t>識別碼中通常與使用者有關的部分，在系統情境內是唯一的。</t>
@@ -796,7 +792,7 @@
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.period</t>
+    <t>Observation.identifier:medicalrecordNumber.period</t>
   </si>
   <si>
     <t>Observation.identifier.period</t>
@@ -821,7 +817,7 @@
     <t>Role.effectiveTime or implied by context</t>
   </si>
   <si>
-    <t>Observation.identifier:hospitalNumber.assigner</t>
+    <t>Observation.identifier:medicalrecordNumber.assigner</t>
   </si>
   <si>
     <t>Observation.identifier.assigner</t>
@@ -849,81 +845,6 @@
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
-    <t>Observation.identifier:medicalrecordNumber</t>
-  </si>
-  <si>
-    <t>medicalrecordNumber</t>
-  </si>
-  <si>
-    <t>適用該就醫紀錄之就診序號</t>
-  </si>
-  <si>
-    <t>適用於該就醫紀錄之就診序號</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.id</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.extension</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.use</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type.id</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type.extension</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type.coding</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type.coding.code</t>
-  </si>
-  <si>
-    <t>MRT</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.type.text</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.system</t>
-  </si>
-  <si>
-    <t>使用個醫院/機構院內代碼</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.value</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.period</t>
-  </si>
-  <si>
-    <t>Observation.identifier:medicalrecordNumber.assigner</t>
-  </si>
-  <si>
     <t>Observation.basedOn</t>
   </si>
   <si>
@@ -1600,9 +1521,6 @@
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
-    <t>http://unitsofmeasure.org</t>
-  </si>
-  <si>
     <t>Quantity.system</t>
   </si>
   <si>
@@ -1629,9 +1547,6 @@
   </si>
   <si>
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>cm</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -2417,7 +2332,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP122"/>
+  <dimension ref="A1:AP102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5634,46 +5549,46 @@
         <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T27" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="T27" t="s" s="2">
+      <c r="U27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
@@ -5694,10 +5609,10 @@
         <v>38</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>38</v>
@@ -5708,10 +5623,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5737,13 +5652,13 @@
         <v>122</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5757,43 +5672,43 @@
         <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
@@ -5814,10 +5729,10 @@
         <v>38</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>38</v>
@@ -5828,10 +5743,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5854,13 +5769,13 @@
         <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5911,7 +5826,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
@@ -5932,10 +5847,10 @@
         <v>38</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>38</v>
@@ -5946,10 +5861,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5972,16 +5887,16 @@
         <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6031,7 +5946,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
@@ -6052,10 +5967,10 @@
         <v>38</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>38</v>
@@ -6066,26 +5981,24 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>38</v>
@@ -6094,7 +6007,7 @@
         <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>105</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>270</v>
@@ -6104,7 +6017,7 @@
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -6153,7 +6066,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>104</v>
+        <v>267</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -6168,19 +6081,19 @@
         <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>111</v>
+        <v>273</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>112</v>
+        <v>274</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>38</v>
@@ -6188,21 +6101,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -6211,18 +6124,20 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>122</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>123</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>38</v>
@@ -6271,31 +6186,31 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>125</v>
+        <v>276</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>38</v>
+        <v>282</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>38</v>
+        <v>283</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>126</v>
+        <v>284</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>38</v>
@@ -6306,10 +6221,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>128</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6317,31 +6232,35 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>96</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
       </c>
@@ -6350,7 +6269,7 @@
         <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>38</v>
@@ -6365,58 +6284,58 @@
         <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>291</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>292</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>131</v>
+        <v>285</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>38</v>
+        <v>294</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>38</v>
+        <v>295</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>38</v>
@@ -6424,10 +6343,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6435,34 +6354,34 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>50</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>134</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>135</v>
+        <v>300</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>136</v>
+        <v>301</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>137</v>
+        <v>302</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -6472,7 +6391,7 @@
         <v>38</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>38</v>
@@ -6487,37 +6406,35 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>140</v>
+        <v>303</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>141</v>
+        <v>304</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>142</v>
+        <v>298</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
@@ -6532,13 +6449,13 @@
         <v>38</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>143</v>
+        <v>306</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>38</v>
+        <v>307</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>38</v>
@@ -6546,12 +6463,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>38</v>
       </c>
@@ -6575,16 +6494,16 @@
         <v>146</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>147</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>148</v>
+        <v>300</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>149</v>
+        <v>301</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>150</v>
+        <v>302</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -6609,13 +6528,13 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>151</v>
+        <v>303</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>38</v>
@@ -6633,13 +6552,13 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>153</v>
+        <v>298</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>154</v>
@@ -6668,10 +6587,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>158</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6700,7 +6619,7 @@
         <v>123</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6786,10 +6705,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>161</v>
+        <v>314</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6818,9 +6737,11 @@
         <v>96</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>38</v>
@@ -6904,10 +6825,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>163</v>
+        <v>317</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6915,7 +6836,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>37</v>
@@ -6927,22 +6848,22 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>164</v>
+        <v>318</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>165</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>166</v>
+        <v>319</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>167</v>
+        <v>320</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>38</v>
@@ -7000,7 +6921,7 @@
         <v>37</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>61</v>
@@ -7012,10 +6933,10 @@
         <v>38</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>170</v>
+        <v>321</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>171</v>
+        <v>322</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>38</v>
@@ -7026,10 +6947,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>173</v>
+        <v>324</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7058,7 +6979,7 @@
         <v>123</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7144,10 +7065,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>175</v>
+        <v>326</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7179,7 +7100,7 @@
         <v>97</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>176</v>
+        <v>315</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7264,10 +7185,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>178</v>
+        <v>328</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7296,7 +7217,7 @@
         <v>179</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>180</v>
+        <v>329</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>181</v>
@@ -7309,10 +7230,10 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>38</v>
+        <v>330</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>38</v>
@@ -7386,10 +7307,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>188</v>
+        <v>332</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7506,10 +7427,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>196</v>
+        <v>334</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7549,10 +7470,10 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>38</v>
+        <v>335</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>284</v>
+        <v>38</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>38</v>
@@ -7626,10 +7547,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>205</v>
+        <v>337</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7643,7 +7564,7 @@
         <v>49</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>38</v>
@@ -7746,10 +7667,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>213</v>
+        <v>339</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7868,10 +7789,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7885,7 +7806,7 @@
         <v>49</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>38</v>
@@ -7990,14 +7911,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>232</v>
+        <v>342</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>38</v>
+        <v>343</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -8013,22 +7934,22 @@
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>234</v>
+        <v>345</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>236</v>
+        <v>346</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>38</v>
@@ -8041,7 +7962,7 @@
         <v>38</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>238</v>
+        <v>38</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>38</v>
@@ -8053,13 +7974,13 @@
         <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>38</v>
+        <v>347</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>38</v>
+        <v>348</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>38</v>
@@ -8077,16 +7998,16 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>239</v>
+        <v>342</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>49</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>61</v>
@@ -8098,10 +8019,10 @@
         <v>38</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>241</v>
+        <v>156</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>38</v>
@@ -8112,10 +8033,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>290</v>
+        <v>349</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>243</v>
+        <v>349</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8123,32 +8044,30 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>122</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>244</v>
+        <v>123</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>38</v>
@@ -8161,7 +8080,7 @@
         <v>38</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>38</v>
@@ -8197,7 +8116,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>248</v>
+        <v>125</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
@@ -8209,7 +8128,7 @@
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
@@ -8218,10 +8137,10 @@
         <v>38</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>38</v>
@@ -8232,10 +8151,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>291</v>
+        <v>350</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>252</v>
+        <v>350</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8246,7 +8165,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
@@ -8255,18 +8174,20 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>254</v>
+        <v>96</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>38</v>
@@ -8303,31 +8224,31 @@
         <v>38</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>256</v>
+        <v>131</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
@@ -8336,10 +8257,10 @@
         <v>38</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>258</v>
+        <v>38</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>38</v>
@@ -8350,10 +8271,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>292</v>
+        <v>351</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>260</v>
+        <v>351</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8364,30 +8285,32 @@
         <v>36</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>262</v>
+        <v>165</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>263</v>
+        <v>166</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>38</v>
       </c>
@@ -8435,16 +8358,16 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>61</v>
@@ -8456,10 +8379,10 @@
         <v>38</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>266</v>
+        <v>170</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>267</v>
+        <v>171</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>38</v>
@@ -8470,21 +8393,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>293</v>
+        <v>352</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>293</v>
+        <v>352</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>294</v>
+        <v>38</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -8493,21 +8416,19 @@
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>295</v>
+        <v>122</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>296</v>
+        <v>123</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>297</v>
+        <v>159</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>298</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>38</v>
       </c>
@@ -8555,31 +8476,31 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>293</v>
+        <v>125</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>300</v>
+        <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>38</v>
@@ -8590,14 +8511,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>302</v>
+        <v>353</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>302</v>
+        <v>353</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>303</v>
+        <v>38</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8613,19 +8534,19 @@
         <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>304</v>
+        <v>95</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>306</v>
+        <v>97</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>307</v>
+        <v>176</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8663,19 +8584,19 @@
         <v>38</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>302</v>
+        <v>131</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
@@ -8687,19 +8608,19 @@
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>308</v>
+        <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>309</v>
+        <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>310</v>
+        <v>38</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -8710,10 +8631,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8721,7 +8642,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>49</v>
@@ -8730,25 +8651,25 @@
         <v>50</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>312</v>
+        <v>179</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>313</v>
+        <v>180</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>314</v>
+        <v>181</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>315</v>
+        <v>182</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -8758,7 +8679,7 @@
         <v>38</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>38</v>
@@ -8773,13 +8694,13 @@
         <v>38</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>317</v>
+        <v>38</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>318</v>
+        <v>38</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>38</v>
@@ -8797,10 +8718,10 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>311</v>
+        <v>184</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>49</v>
@@ -8812,19 +8733,19 @@
         <v>61</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>319</v>
+        <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>320</v>
+        <v>38</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>321</v>
+        <v>185</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>322</v>
+        <v>186</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>323</v>
+        <v>38</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>38</v>
@@ -8832,10 +8753,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8843,35 +8764,33 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J54" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="I54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="K54" t="s" s="2">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>325</v>
+        <v>189</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>326</v>
+        <v>190</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>38</v>
       </c>
@@ -8895,35 +8814,37 @@
         <v>38</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>329</v>
+        <v>38</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>330</v>
+        <v>38</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AC54" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AD54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>324</v>
+        <v>192</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
@@ -8938,13 +8859,13 @@
         <v>38</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>332</v>
+        <v>194</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>333</v>
+        <v>38</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>38</v>
@@ -8952,20 +8873,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>49</v>
@@ -8977,22 +8896,20 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>336</v>
+        <v>197</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>328</v>
+        <v>199</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
@@ -9002,7 +8919,7 @@
         <v>38</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>38</v>
+        <v>358</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>38</v>
@@ -9017,13 +8934,13 @@
         <v>38</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>329</v>
+        <v>38</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>330</v>
+        <v>38</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>38</v>
@@ -9041,16 +8958,16 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>324</v>
+        <v>201</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>61</v>
@@ -9062,10 +8979,10 @@
         <v>38</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>38</v>
@@ -9076,10 +8993,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9093,25 +9010,27 @@
         <v>49</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>122</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>124</v>
+        <v>207</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>38</v>
       </c>
@@ -9159,7 +9078,7 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
@@ -9171,7 +9090,7 @@
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
@@ -9180,10 +9099,10 @@
         <v>38</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>38</v>
@@ -9194,10 +9113,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9208,7 +9127,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>38</v>
@@ -9217,21 +9136,23 @@
         <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>96</v>
+        <v>215</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>38</v>
       </c>
@@ -9267,31 +9188,31 @@
         <v>38</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>131</v>
+        <v>219</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
@@ -9300,10 +9221,10 @@
         <v>38</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>38</v>
@@ -9314,10 +9235,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9325,10 +9246,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>50</v>
@@ -9340,19 +9261,19 @@
         <v>50</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>344</v>
+        <v>122</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>345</v>
+        <v>225</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>346</v>
+        <v>226</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>38</v>
@@ -9401,13 +9322,13 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>38</v>
@@ -9422,10 +9343,10 @@
         <v>38</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>347</v>
+        <v>229</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>348</v>
+        <v>230</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>38</v>
@@ -9436,10 +9357,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9447,31 +9368,35 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>122</v>
+        <v>363</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>38</v>
       </c>
@@ -9519,7 +9444,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>125</v>
+        <v>362</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -9531,22 +9456,22 @@
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>38</v>
+        <v>368</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>38</v>
+        <v>369</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>126</v>
+        <v>370</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>38</v>
+        <v>371</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>38</v>
@@ -9554,10 +9479,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9577,19 +9502,19 @@
         <v>38</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>95</v>
+        <v>373</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>96</v>
+        <v>374</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>97</v>
+        <v>375</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9627,19 +9552,19 @@
         <v>38</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>131</v>
+        <v>372</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -9651,7 +9576,7 @@
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
@@ -9660,13 +9585,13 @@
         <v>38</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>38</v>
+        <v>377</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>38</v>
+        <v>378</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>38</v>
+        <v>371</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>38</v>
@@ -9674,24 +9599,24 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>38</v>
+        <v>380</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>38</v>
@@ -9700,26 +9625,26 @@
         <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>63</v>
+        <v>381</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>179</v>
+        <v>382</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>181</v>
+        <v>384</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>182</v>
+        <v>385</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>356</v>
+        <v>38</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>38</v>
@@ -9761,7 +9686,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>184</v>
+        <v>379</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
@@ -9776,19 +9701,19 @@
         <v>61</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>38</v>
+        <v>386</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>185</v>
+        <v>387</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>186</v>
+        <v>388</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>38</v>
+        <v>389</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>38</v>
@@ -9796,24 +9721,24 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>38</v>
+        <v>391</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>38</v>
@@ -9822,18 +9747,20 @@
         <v>50</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>122</v>
+        <v>392</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>189</v>
+        <v>393</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>190</v>
+        <v>394</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>38</v>
       </c>
@@ -9869,19 +9796,17 @@
         <v>38</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>192</v>
+        <v>390</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
@@ -9890,25 +9815,25 @@
         <v>49</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>38</v>
+        <v>398</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>61</v>
+        <v>399</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>38</v>
+        <v>400</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>193</v>
+        <v>401</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>194</v>
+        <v>402</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>38</v>
+        <v>403</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>38</v>
@@ -9916,18 +9841,20 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="D63" t="s" s="2">
-        <v>38</v>
+        <v>391</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>49</v>
@@ -9942,24 +9869,26 @@
         <v>50</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>69</v>
+        <v>406</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>197</v>
+        <v>393</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O63" t="s" s="2">
-        <v>199</v>
+        <v>396</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>361</v>
+        <v>38</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>38</v>
@@ -10001,7 +9930,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>201</v>
+        <v>390</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -10010,25 +9939,25 @@
         <v>49</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>38</v>
+        <v>398</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>61</v>
+        <v>399</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>38</v>
+        <v>400</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>202</v>
+        <v>401</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>203</v>
+        <v>402</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>38</v>
+        <v>403</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>38</v>
@@ -10036,10 +9965,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10062,18 +9991,18 @@
         <v>50</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>122</v>
+        <v>408</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>206</v>
+        <v>409</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>38</v>
       </c>
@@ -10121,7 +10050,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>209</v>
+        <v>407</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
@@ -10142,13 +10071,13 @@
         <v>38</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>210</v>
+        <v>412</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>211</v>
+        <v>413</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>38</v>
@@ -10156,10 +10085,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10167,13 +10096,13 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>38</v>
@@ -10182,19 +10111,17 @@
         <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>215</v>
+        <v>416</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>218</v>
+        <v>418</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>38</v>
@@ -10243,13 +10170,13 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>219</v>
+        <v>415</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>38</v>
@@ -10258,19 +10185,19 @@
         <v>61</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>38</v>
+        <v>419</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>221</v>
+        <v>421</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>38</v>
+        <v>422</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>38</v>
@@ -10278,10 +10205,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>367</v>
+        <v>423</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10289,13 +10216,13 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>38</v>
@@ -10304,19 +10231,19 @@
         <v>50</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>122</v>
+        <v>424</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>224</v>
+        <v>425</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>225</v>
+        <v>426</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>226</v>
+        <v>427</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>227</v>
+        <v>428</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>38</v>
@@ -10341,31 +10268,29 @@
         <v>38</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>38</v>
+        <v>429</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>38</v>
+        <v>430</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>38</v>
+        <v>431</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="AC66" s="2"/>
       <c r="AD66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>228</v>
+        <v>423</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>36</v>
@@ -10374,7 +10299,7 @@
         <v>49</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>38</v>
+        <v>433</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>61</v>
@@ -10383,31 +10308,33 @@
         <v>38</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>38</v>
+        <v>434</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>229</v>
+        <v>435</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>230</v>
+        <v>436</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>38</v>
+        <v>437</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>368</v>
+        <v>438</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="D67" t="s" s="2">
-        <v>369</v>
+        <v>38</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10423,22 +10350,22 @@
         <v>38</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>146</v>
+        <v>424</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>370</v>
+        <v>440</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>371</v>
+        <v>426</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>327</v>
+        <v>427</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>372</v>
+        <v>428</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>38</v>
@@ -10463,13 +10390,13 @@
         <v>38</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>139</v>
+        <v>429</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>373</v>
+        <v>430</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>374</v>
+        <v>431</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>38</v>
@@ -10487,16 +10414,16 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>49</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>154</v>
+        <v>433</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>61</v>
@@ -10505,27 +10432,27 @@
         <v>38</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>38</v>
+        <v>434</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>155</v>
+        <v>435</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>156</v>
+        <v>436</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>38</v>
+        <v>437</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>375</v>
+        <v>441</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>375</v>
+        <v>442</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10551,10 +10478,10 @@
         <v>122</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>123</v>
+        <v>443</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>124</v>
+        <v>444</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10640,14 +10567,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>376</v>
+        <v>445</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>376</v>
+        <v>446</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>38</v>
+        <v>447</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10669,13 +10596,13 @@
         <v>95</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>96</v>
+        <v>448</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>97</v>
+        <v>449</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>341</v>
+        <v>450</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10749,7 +10676,7 @@
         <v>38</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>38</v>
@@ -10760,10 +10687,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>377</v>
+        <v>451</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>377</v>
+        <v>452</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10771,10 +10698,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>50</v>
@@ -10783,22 +10710,22 @@
         <v>38</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>164</v>
+        <v>453</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>165</v>
+        <v>454</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>166</v>
+        <v>455</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>167</v>
+        <v>456</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>168</v>
+        <v>457</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
@@ -10847,16 +10774,16 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>169</v>
+        <v>458</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>61</v>
@@ -10868,10 +10795,10 @@
         <v>38</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>170</v>
+        <v>459</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>171</v>
+        <v>460</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>38</v>
@@ -10882,10 +10809,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>378</v>
+        <v>461</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>378</v>
+        <v>462</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10902,26 +10829,30 @@
         <v>38</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>123</v>
+        <v>463</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>159</v>
+        <v>464</v>
       </c>
       <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="Q71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="R71" t="s" s="2">
         <v>38</v>
       </c>
@@ -10941,13 +10872,13 @@
         <v>38</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>38</v>
+        <v>467</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>38</v>
+        <v>468</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>38</v>
@@ -10965,7 +10896,7 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>125</v>
+        <v>469</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>36</v>
@@ -10977,7 +10908,7 @@
         <v>38</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>38</v>
@@ -10986,10 +10917,10 @@
         <v>38</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>38</v>
+        <v>470</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>126</v>
+        <v>471</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>38</v>
@@ -11000,10 +10931,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>379</v>
+        <v>472</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>379</v>
+        <v>473</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11011,33 +10942,33 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>96</v>
+        <v>474</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>38</v>
       </c>
@@ -11073,31 +11004,31 @@
         <v>38</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>131</v>
+        <v>477</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>38</v>
@@ -11106,10 +11037,10 @@
         <v>38</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>38</v>
+        <v>478</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>38</v>
+        <v>479</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>38</v>
@@ -11120,10 +11051,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>380</v>
+        <v>481</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11137,7 +11068,7 @@
         <v>49</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>38</v>
@@ -11149,16 +11080,14 @@
         <v>63</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>179</v>
+        <v>482</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>182</v>
+        <v>484</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>38</v>
@@ -11168,7 +11097,7 @@
         <v>38</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>381</v>
+        <v>38</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>38</v>
@@ -11207,7 +11136,7 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>184</v>
+        <v>485</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>36</v>
@@ -11216,7 +11145,7 @@
         <v>49</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>38</v>
+        <v>486</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>61</v>
@@ -11228,10 +11157,10 @@
         <v>38</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>185</v>
+        <v>478</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>186</v>
+        <v>487</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>38</v>
@@ -11242,10 +11171,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>382</v>
+        <v>488</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>382</v>
+        <v>489</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11268,18 +11197,20 @@
         <v>50</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>189</v>
+        <v>490</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>190</v>
+        <v>491</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>38</v>
       </c>
@@ -11327,7 +11258,7 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>192</v>
+        <v>494</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
@@ -11348,10 +11279,10 @@
         <v>38</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>193</v>
+        <v>478</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>194</v>
+        <v>495</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>38</v>
@@ -11362,10 +11293,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>383</v>
+        <v>496</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>383</v>
+        <v>496</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11385,20 +11316,22 @@
         <v>38</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>197</v>
+        <v>497</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="O75" t="s" s="2">
-        <v>199</v>
+        <v>500</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>38</v>
@@ -11408,7 +11341,7 @@
         <v>38</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>384</v>
+        <v>38</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>38</v>
@@ -11423,13 +11356,13 @@
         <v>38</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>38</v>
+        <v>429</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>38</v>
+        <v>501</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>38</v>
+        <v>502</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>38</v>
@@ -11447,7 +11380,7 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>201</v>
+        <v>496</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
@@ -11456,7 +11389,7 @@
         <v>49</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>61</v>
@@ -11468,10 +11401,10 @@
         <v>38</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>38</v>
@@ -11482,43 +11415,45 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>385</v>
+        <v>503</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>385</v>
+        <v>503</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>38</v>
+        <v>504</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>206</v>
+        <v>505</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="O76" t="s" s="2">
-        <v>208</v>
+        <v>508</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>38</v>
@@ -11543,13 +11478,13 @@
         <v>38</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>38</v>
+        <v>429</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>38</v>
+        <v>509</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>38</v>
+        <v>510</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>38</v>
@@ -11567,16 +11502,16 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>209</v>
+        <v>503</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>61</v>
@@ -11588,10 +11523,10 @@
         <v>38</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>38</v>
@@ -11602,10 +11537,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>386</v>
+        <v>511</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>386</v>
+        <v>511</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11616,7 +11551,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>38</v>
@@ -11625,22 +11560,22 @@
         <v>38</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>214</v>
+        <v>512</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>215</v>
+        <v>513</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>216</v>
+        <v>514</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>217</v>
+        <v>515</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>218</v>
+        <v>516</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>38</v>
@@ -11689,13 +11624,13 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>219</v>
+        <v>511</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>38</v>
@@ -11710,10 +11645,10 @@
         <v>38</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>220</v>
+        <v>517</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>221</v>
+        <v>518</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>38</v>
@@ -11724,10 +11659,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>387</v>
+        <v>519</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>387</v>
+        <v>519</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11741,29 +11676,27 @@
         <v>49</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>224</v>
+        <v>520</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>225</v>
+        <v>521</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>38</v>
       </c>
@@ -11787,13 +11720,13 @@
         <v>38</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>38</v>
+        <v>523</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>38</v>
+        <v>524</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>38</v>
+        <v>525</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>38</v>
@@ -11811,7 +11744,7 @@
         <v>38</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>228</v>
+        <v>519</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>36</v>
@@ -11820,7 +11753,7 @@
         <v>49</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>61</v>
@@ -11832,10 +11765,10 @@
         <v>38</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>38</v>
@@ -11846,10 +11779,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>388</v>
+        <v>526</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>388</v>
+        <v>526</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11857,34 +11790,34 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>389</v>
+        <v>146</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>390</v>
+        <v>527</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>391</v>
+        <v>528</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>392</v>
+        <v>529</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>393</v>
+        <v>530</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>38</v>
@@ -11909,13 +11842,13 @@
         <v>38</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>38</v>
+        <v>523</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>38</v>
+        <v>531</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>38</v>
+        <v>532</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>38</v>
@@ -11933,7 +11866,7 @@
         <v>38</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>388</v>
+        <v>526</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>36</v>
@@ -11942,25 +11875,25 @@
         <v>49</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>394</v>
+        <v>38</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>395</v>
+        <v>155</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>396</v>
+        <v>156</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>397</v>
+        <v>38</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>38</v>
@@ -11968,10 +11901,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>398</v>
+        <v>533</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>398</v>
+        <v>533</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11982,7 +11915,7 @@
         <v>36</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>38</v>
@@ -11991,19 +11924,19 @@
         <v>38</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>399</v>
+        <v>534</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>400</v>
+        <v>535</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>401</v>
+        <v>536</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>402</v>
+        <v>537</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12053,13 +11986,13 @@
         <v>38</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>398</v>
+        <v>533</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>38</v>
@@ -12071,31 +12004,31 @@
         <v>38</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>38</v>
+        <v>538</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>403</v>
+        <v>539</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>404</v>
+        <v>540</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>397</v>
+        <v>38</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>38</v>
+        <v>541</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>405</v>
+        <v>542</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>405</v>
+        <v>542</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>406</v>
+        <v>38</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12111,23 +12044,21 @@
         <v>38</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>407</v>
+        <v>543</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>408</v>
+        <v>544</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>409</v>
+        <v>545</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>38</v>
       </c>
@@ -12175,7 +12106,7 @@
         <v>38</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>405</v>
+        <v>542</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>36</v>
@@ -12190,65 +12121,65 @@
         <v>61</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>412</v>
+        <v>38</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>38</v>
+        <v>547</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>413</v>
+        <v>548</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>414</v>
+        <v>549</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>415</v>
+        <v>38</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>38</v>
+        <v>550</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>416</v>
+        <v>551</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>416</v>
+        <v>551</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>417</v>
+        <v>38</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>418</v>
+        <v>552</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>419</v>
+        <v>553</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>420</v>
+        <v>554</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>421</v>
+        <v>555</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>422</v>
+        <v>556</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>38</v>
@@ -12285,44 +12216,46 @@
         <v>38</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AC82" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AD82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>416</v>
+        <v>551</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>424</v>
+        <v>38</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>425</v>
+        <v>557</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>426</v>
+        <v>38</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>427</v>
+        <v>558</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>428</v>
+        <v>559</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>429</v>
+        <v>38</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>38</v>
@@ -12330,16 +12263,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>430</v>
+        <v>560</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>417</v>
+        <v>38</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12349,29 +12280,25 @@
         <v>49</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>432</v>
+        <v>122</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>419</v>
+        <v>123</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>38</v>
       </c>
@@ -12419,7 +12346,7 @@
         <v>38</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>416</v>
+        <v>125</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>36</v>
@@ -12428,25 +12355,25 @@
         <v>49</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>424</v>
+        <v>38</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>425</v>
+        <v>38</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>426</v>
+        <v>38</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>427</v>
+        <v>38</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>428</v>
+        <v>126</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>429</v>
+        <v>38</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>38</v>
@@ -12454,10 +12381,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>433</v>
+        <v>561</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>433</v>
+        <v>561</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12468,7 +12395,7 @@
         <v>36</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>38</v>
@@ -12477,19 +12404,19 @@
         <v>38</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>434</v>
+        <v>95</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>435</v>
+        <v>96</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>436</v>
+        <v>97</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>437</v>
+        <v>176</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12539,19 +12466,19 @@
         <v>38</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>433</v>
+        <v>131</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>38</v>
@@ -12560,13 +12487,13 @@
         <v>38</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>438</v>
+        <v>38</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>439</v>
+        <v>38</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>440</v>
+        <v>38</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>38</v>
@@ -12574,10 +12501,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>441</v>
+        <v>562</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>441</v>
+        <v>562</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12585,32 +12512,34 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I85" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>50</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>261</v>
+        <v>95</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>442</v>
+        <v>101</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O85" t="s" s="2">
-        <v>444</v>
+        <v>563</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>38</v>
@@ -12659,7 +12588,7 @@
         <v>38</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>441</v>
+        <v>564</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>36</v>
@@ -12671,22 +12600,22 @@
         <v>38</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>445</v>
+        <v>38</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>446</v>
+        <v>38</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>447</v>
+        <v>38</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>448</v>
+        <v>38</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>38</v>
@@ -12694,10 +12623,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>449</v>
+        <v>565</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>449</v>
+        <v>565</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12705,35 +12634,31 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>450</v>
+        <v>566</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>451</v>
+        <v>567</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>38</v>
       </c>
@@ -12757,29 +12682,31 @@
         <v>38</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>455</v>
+        <v>38</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>456</v>
+        <v>38</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>457</v>
+        <v>38</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AC86" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AD86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>458</v>
+        <v>38</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>449</v>
+        <v>565</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>36</v>
@@ -12788,7 +12715,7 @@
         <v>49</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>459</v>
+        <v>569</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>61</v>
@@ -12797,65 +12724,59 @@
         <v>38</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>460</v>
+        <v>38</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>461</v>
+        <v>570</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>462</v>
+        <v>571</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>463</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>464</v>
+        <v>572</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>450</v>
+        <v>566</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>466</v>
+        <v>573</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>38</v>
       </c>
@@ -12879,13 +12800,13 @@
         <v>38</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>455</v>
+        <v>38</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>456</v>
+        <v>38</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>457</v>
+        <v>38</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>38</v>
@@ -12903,7 +12824,7 @@
         <v>38</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>449</v>
+        <v>572</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>36</v>
@@ -12912,7 +12833,7 @@
         <v>49</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>459</v>
+        <v>569</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>61</v>
@@ -12921,27 +12842,27 @@
         <v>38</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>460</v>
+        <v>38</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>461</v>
+        <v>570</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>462</v>
+        <v>574</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>463</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>467</v>
+        <v>575</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>468</v>
+        <v>575</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12964,16 +12885,20 @@
         <v>38</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>469</v>
+        <v>576</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+        <v>577</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>38</v>
       </c>
@@ -12997,13 +12922,13 @@
         <v>38</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>38</v>
+        <v>580</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>38</v>
+        <v>581</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>38</v>
@@ -13021,7 +12946,7 @@
         <v>38</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>125</v>
+        <v>575</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>36</v>
@@ -13030,10 +12955,10 @@
         <v>49</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>38</v>
@@ -13042,10 +12967,10 @@
         <v>38</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>38</v>
@@ -13056,14 +12981,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>471</v>
+        <v>582</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>472</v>
+        <v>582</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>473</v>
+        <v>38</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -13082,18 +13007,20 @@
         <v>38</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>474</v>
+        <v>583</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>475</v>
+        <v>584</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>585</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>38</v>
       </c>
@@ -13117,31 +13044,31 @@
         <v>38</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>38</v>
+        <v>523</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>38</v>
+        <v>586</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>38</v>
+        <v>587</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>131</v>
+        <v>582</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>36</v>
@@ -13150,10 +13077,10 @@
         <v>37</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>38</v>
@@ -13162,10 +13089,10 @@
         <v>38</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>38</v>
@@ -13176,10 +13103,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>477</v>
+        <v>588</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>478</v>
+        <v>588</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13187,34 +13114,32 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>479</v>
+        <v>589</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>480</v>
+        <v>590</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>483</v>
+        <v>592</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>38</v>
@@ -13263,7 +13188,7 @@
         <v>38</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>484</v>
+        <v>588</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>36</v>
@@ -13284,10 +13209,10 @@
         <v>38</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>485</v>
+        <v>38</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>486</v>
+        <v>593</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>38</v>
@@ -13298,10 +13223,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>487</v>
+        <v>594</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>488</v>
+        <v>594</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13318,30 +13243,26 @@
         <v>38</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>489</v>
+        <v>595</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>490</v>
+        <v>596</v>
       </c>
       <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>491</v>
-      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="Q91" t="s" s="2">
-        <v>492</v>
-      </c>
+      <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
         <v>38</v>
       </c>
@@ -13361,13 +13282,13 @@
         <v>38</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>493</v>
+        <v>38</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>494</v>
+        <v>38</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>38</v>
@@ -13385,7 +13306,7 @@
         <v>38</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>495</v>
+        <v>594</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>36</v>
@@ -13406,10 +13327,10 @@
         <v>38</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>496</v>
+        <v>570</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>497</v>
+        <v>597</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>38</v>
@@ -13420,10 +13341,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>498</v>
+        <v>598</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>499</v>
+        <v>598</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13431,13 +13352,13 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>38</v>
@@ -13446,18 +13367,18 @@
         <v>50</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>122</v>
+        <v>599</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>38</v>
       </c>
@@ -13505,13 +13426,13 @@
         <v>38</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>503</v>
+        <v>598</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>38</v>
@@ -13526,10 +13447,10 @@
         <v>38</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>504</v>
+        <v>603</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>505</v>
+        <v>604</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>38</v>
@@ -13540,10 +13461,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>506</v>
+        <v>605</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>507</v>
+        <v>605</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13554,10 +13475,10 @@
         <v>36</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>38</v>
@@ -13566,24 +13487,24 @@
         <v>50</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>63</v>
+        <v>606</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>508</v>
+        <v>607</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>511</v>
+        <v>38</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>38</v>
@@ -13625,16 +13546,16 @@
         <v>38</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>512</v>
+        <v>605</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>513</v>
+        <v>38</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>61</v>
@@ -13646,10 +13567,10 @@
         <v>38</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>504</v>
+        <v>603</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>514</v>
+        <v>610</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>38</v>
@@ -13660,10 +13581,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>515</v>
+        <v>611</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>516</v>
+        <v>611</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13671,10 +13592,10 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>50</v>
@@ -13686,26 +13607,26 @@
         <v>50</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>69</v>
+        <v>552</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>517</v>
+        <v>612</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>518</v>
+        <v>613</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>519</v>
+        <v>614</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>520</v>
+        <v>615</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>521</v>
+        <v>38</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>38</v>
@@ -13747,19 +13668,19 @@
         <v>38</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>522</v>
+        <v>611</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>61</v>
+        <v>616</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>38</v>
@@ -13768,10 +13689,10 @@
         <v>38</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>504</v>
+        <v>617</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>523</v>
+        <v>618</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>38</v>
@@ -13782,10 +13703,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>524</v>
+        <v>619</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>524</v>
+        <v>619</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13799,7 +13720,7 @@
         <v>49</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>38</v>
@@ -13808,20 +13729,16 @@
         <v>38</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>525</v>
+        <v>123</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>38</v>
       </c>
@@ -13845,13 +13762,13 @@
         <v>38</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>455</v>
+        <v>38</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>529</v>
+        <v>38</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>530</v>
+        <v>38</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>38</v>
@@ -13869,7 +13786,7 @@
         <v>38</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>524</v>
+        <v>125</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>36</v>
@@ -13878,10 +13795,10 @@
         <v>49</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>38</v>
@@ -13890,10 +13807,10 @@
         <v>38</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>38</v>
@@ -13904,14 +13821,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>531</v>
+        <v>620</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>531</v>
+        <v>620</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>532</v>
+        <v>38</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13930,20 +13847,18 @@
         <v>38</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>533</v>
+        <v>96</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>534</v>
+        <v>97</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>536</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>38</v>
       </c>
@@ -13967,13 +13882,13 @@
         <v>38</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>455</v>
+        <v>38</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>537</v>
+        <v>38</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>538</v>
+        <v>38</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>38</v>
@@ -13991,7 +13906,7 @@
         <v>38</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>531</v>
+        <v>131</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>36</v>
@@ -14000,10 +13915,10 @@
         <v>37</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>38</v>
@@ -14012,10 +13927,10 @@
         <v>38</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>38</v>
@@ -14026,10 +13941,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>539</v>
+        <v>621</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>539</v>
+        <v>621</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14046,25 +13961,25 @@
         <v>38</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>540</v>
+        <v>95</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>541</v>
+        <v>101</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>542</v>
+        <v>102</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>543</v>
+        <v>176</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>544</v>
+        <v>622</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>38</v>
@@ -14113,7 +14028,7 @@
         <v>38</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>36</v>
@@ -14125,7 +14040,7 @@
         <v>38</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>38</v>
@@ -14134,10 +14049,10 @@
         <v>38</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>545</v>
+        <v>38</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>546</v>
+        <v>38</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>38</v>
@@ -14148,10 +14063,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>547</v>
+        <v>623</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>547</v>
+        <v>623</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14159,13 +14074,13 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>38</v>
@@ -14177,15 +14092,17 @@
         <v>146</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>548</v>
+        <v>624</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>549</v>
+        <v>625</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="O98" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>38</v>
       </c>
@@ -14209,13 +14126,13 @@
         <v>38</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>551</v>
+        <v>139</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>552</v>
+        <v>627</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>553</v>
+        <v>348</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>38</v>
@@ -14233,10 +14150,10 @@
         <v>38</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>547</v>
+        <v>623</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>49</v>
@@ -14268,10 +14185,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14285,28 +14202,28 @@
         <v>49</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>146</v>
+        <v>629</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>555</v>
+        <v>630</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>556</v>
+        <v>631</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>557</v>
+        <v>632</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>558</v>
+        <v>428</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>38</v>
@@ -14331,13 +14248,13 @@
         <v>38</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>551</v>
+        <v>139</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>559</v>
+        <v>633</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>560</v>
+        <v>431</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>38</v>
@@ -14355,7 +14272,7 @@
         <v>38</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>36</v>
@@ -14364,7 +14281,7 @@
         <v>49</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>154</v>
+        <v>634</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>61</v>
@@ -14373,27 +14290,27 @@
         <v>38</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>38</v>
+        <v>635</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>155</v>
+        <v>435</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>156</v>
+        <v>436</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>38</v>
+        <v>437</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>561</v>
+        <v>636</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>561</v>
+        <v>636</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14407,7 +14324,7 @@
         <v>49</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>38</v>
@@ -14416,18 +14333,20 @@
         <v>38</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>562</v>
+        <v>146</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>563</v>
+        <v>637</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>564</v>
+        <v>638</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="O100" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>38</v>
       </c>
@@ -14451,13 +14370,13 @@
         <v>38</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>38</v>
+        <v>429</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>38</v>
+        <v>639</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>38</v>
+        <v>502</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>38</v>
@@ -14475,7 +14394,7 @@
         <v>38</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>561</v>
+        <v>636</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>36</v>
@@ -14484,7 +14403,7 @@
         <v>49</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>61</v>
@@ -14493,38 +14412,38 @@
         <v>38</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>566</v>
+        <v>38</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>567</v>
+        <v>155</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>568</v>
+        <v>156</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP100" t="s" s="2">
-        <v>569</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>570</v>
+        <v>640</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>570</v>
+        <v>640</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>38</v>
+        <v>504</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>38</v>
@@ -14536,18 +14455,20 @@
         <v>38</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>571</v>
+        <v>146</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>573</v>
+        <v>506</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O101" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>38</v>
       </c>
@@ -14571,13 +14492,13 @@
         <v>38</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>38</v>
+        <v>429</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>38</v>
+        <v>642</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>38</v>
+        <v>510</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>38</v>
@@ -14595,16 +14516,16 @@
         <v>38</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>570</v>
+        <v>640</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>61</v>
@@ -14613,27 +14534,27 @@
         <v>38</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>575</v>
+        <v>38</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>576</v>
+        <v>155</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>577</v>
+        <v>156</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>578</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>579</v>
+        <v>643</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>579</v>
+        <v>643</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14656,19 +14577,19 @@
         <v>38</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>580</v>
+        <v>39</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>581</v>
+        <v>644</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>582</v>
+        <v>645</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>583</v>
+        <v>555</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>38</v>
@@ -14717,7 +14638,7 @@
         <v>38</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>579</v>
+        <v>643</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>36</v>
@@ -14729,7 +14650,7 @@
         <v>38</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>585</v>
+        <v>61</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>38</v>
@@ -14738,2430 +14659,20 @@
         <v>38</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>586</v>
+        <v>558</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>587</v>
+        <v>559</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP103" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O104" s="2"/>
-      <c r="P104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP104" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="P105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP105" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP106" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP107" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="P108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AO108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP108" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="P109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP109" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="P110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q110" s="2"/>
-      <c r="R110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="AO110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP110" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
-      <c r="P111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q111" s="2"/>
-      <c r="R111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AO111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP111" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="O112" s="2"/>
-      <c r="P112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP112" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="O113" s="2"/>
-      <c r="P113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP113" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="P114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q114" s="2"/>
-      <c r="R114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="AO114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP114" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q115" s="2"/>
-      <c r="R115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AO115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP115" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O116" s="2"/>
-      <c r="P116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q116" s="2"/>
-      <c r="R116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP116" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="P117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q117" s="2"/>
-      <c r="R117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP117" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="P118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q118" s="2"/>
-      <c r="R118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP118" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="P119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q119" s="2"/>
-      <c r="R119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AO119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP119" t="s" s="2">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="P120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q120" s="2"/>
-      <c r="R120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP120" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="E121" s="2"/>
-      <c r="F121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="P121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q121" s="2"/>
-      <c r="R121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP121" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E122" s="2"/>
-      <c r="F122" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="P122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q122" s="2"/>
-      <c r="R122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP122" t="s" s="2">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP122">
+  <autoFilter ref="A1:AP102">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17171,7 +14682,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI121">
+  <conditionalFormatting sqref="A2:AI101">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
